--- a/sprintLinkedinDemoProject/src/test/resources/Exceldata/Data.xlsx
+++ b/sprintLinkedinDemoProject/src/test/resources/Exceldata/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHMALSHE\Documents\Spring Demo Project\sprintLinkedinDemoProject\src\test\resources\Exceldata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BHAGADE\Documents\Submmition Project\SprintLinkedInProject\Spring Demo Project\sprintLinkedinDemoProject\src\test\resources\Exceldata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0643996A-53DC-4303-883E-C5ADD2C5C97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD486D9-37F4-40C5-83CA-2E56210FDEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Username</t>
   </si>
@@ -37,6 +37,24 @@
   </si>
   <si>
     <t>M@rsi03101</t>
+  </si>
+  <si>
+    <t>connection</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>Raghav Sharma</t>
+  </si>
+  <si>
+    <t>Hello Raghav</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Aniket Shinde</t>
   </si>
 </sst>
 </file>
@@ -365,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" activeCellId="1" sqref="A10 B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -393,6 +411,37 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{03F3F362-CD4F-4542-88E0-BEBC96ECD39F}"/>
